--- a/Data_clean/MCAS/Estados_US/Edos_USA_2024/KANSAS_2024.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2024/KANSAS_2024.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1042"/>
+  <dimension ref="A1:D1036"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -452,7 +452,7 @@
     <row r="7">
       <c r="B7" t="inlineStr">
         <is>
-          <t>Pabellón de Arteaga</t>
+          <t>Pabellón De Arteaga</t>
         </is>
       </c>
       <c r="C7">
@@ -465,7 +465,7 @@
     <row r="8">
       <c r="B8" t="inlineStr">
         <is>
-          <t>Rincón de Romos</t>
+          <t>Rincón De Romos</t>
         </is>
       </c>
       <c r="C8">
@@ -478,7 +478,7 @@
     <row r="9">
       <c r="B9" t="inlineStr">
         <is>
-          <t>San José de Gracia</t>
+          <t>San José De Gracia</t>
         </is>
       </c>
       <c r="C9">
@@ -784,7 +784,7 @@
     <row r="31">
       <c r="B31" t="inlineStr">
         <is>
-          <t>Amatenango del Valle</t>
+          <t>Amatenango Del Valle</t>
         </is>
       </c>
       <c r="C31">
@@ -836,7 +836,7 @@
     <row r="35">
       <c r="B35" t="inlineStr">
         <is>
-          <t>Bejucal de Ocampo</t>
+          <t>Bejucal De Ocampo</t>
         </is>
       </c>
       <c r="C35">
@@ -940,7 +940,7 @@
     <row r="43">
       <c r="B43" t="inlineStr">
         <is>
-          <t>Comitán de Domínguez</t>
+          <t>Comitán De Domínguez</t>
         </is>
       </c>
       <c r="C43">
@@ -1187,7 +1187,7 @@
     <row r="62">
       <c r="B62" t="inlineStr">
         <is>
-          <t>Ocozocoautla de Espinosa</t>
+          <t>Ocozocoautla De Espinosa</t>
         </is>
       </c>
       <c r="C62">
@@ -1265,7 +1265,7 @@
     <row r="68">
       <c r="B68" t="inlineStr">
         <is>
-          <t>San Cristóbal de las Casas</t>
+          <t>San Cristóbal De Las Casas</t>
         </is>
       </c>
       <c r="C68">
@@ -1634,7 +1634,7 @@
     <row r="96">
       <c r="B96" t="inlineStr">
         <is>
-          <t>Coyame del Sotol</t>
+          <t>Coyame Del Sotol</t>
         </is>
       </c>
       <c r="C96">
@@ -1764,7 +1764,7 @@
     <row r="106">
       <c r="B106" t="inlineStr">
         <is>
-          <t>Guadalupe y Calvo</t>
+          <t>Guadalupe Y Calvo</t>
         </is>
       </c>
       <c r="C106">
@@ -1816,7 +1816,7 @@
     <row r="110">
       <c r="B110" t="inlineStr">
         <is>
-          <t>Hidalgo del Parral</t>
+          <t>Hidalgo Del Parral</t>
         </is>
       </c>
       <c r="C110">
@@ -2076,7 +2076,7 @@
     <row r="130">
       <c r="B130" t="inlineStr">
         <is>
-          <t>San Francisco de Conchos</t>
+          <t>San Francisco De Conchos</t>
         </is>
       </c>
       <c r="C130">
@@ -2089,7 +2089,7 @@
     <row r="131">
       <c r="B131" t="inlineStr">
         <is>
-          <t>San Francisco del Oro</t>
+          <t>San Francisco Del Oro</t>
         </is>
       </c>
       <c r="C131">
@@ -2167,7 +2167,7 @@
     <row r="137">
       <c r="B137" t="inlineStr">
         <is>
-          <t>Valle de Zaragoza</t>
+          <t>Valle De Zaragoza</t>
         </is>
       </c>
       <c r="C137">
@@ -2193,7 +2193,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -2237,7 +2237,7 @@
     <row r="142">
       <c r="B142" t="inlineStr">
         <is>
-          <t>Cuajimalpa de Morelos</t>
+          <t>Cuajimalpa De Morelos</t>
         </is>
       </c>
       <c r="C142">
@@ -2432,7 +2432,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Coahuila de Zaragoza</t>
+          <t>Coahuila De Zaragoza</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -2593,7 +2593,7 @@
     <row r="169">
       <c r="B169" t="inlineStr">
         <is>
-          <t>San Juan de Sabinas</t>
+          <t>San Juan De Sabinas</t>
         </is>
       </c>
       <c r="C169">
@@ -2767,7 +2767,7 @@
     <row r="182">
       <c r="B182" t="inlineStr">
         <is>
-          <t>Villa de Álvarez</t>
+          <t>Villa De Álvarez</t>
         </is>
       </c>
       <c r="C182">
@@ -2811,7 +2811,7 @@
     <row r="185">
       <c r="B185" t="inlineStr">
         <is>
-          <t>Coneto de Comonfort</t>
+          <t>Coneto De Comonfort</t>
         </is>
       </c>
       <c r="C185">
@@ -3006,7 +3006,7 @@
     <row r="200">
       <c r="B200" t="inlineStr">
         <is>
-          <t>Nombre de Dios</t>
+          <t>Nombre De Dios</t>
         </is>
       </c>
       <c r="C200">
@@ -3084,7 +3084,7 @@
     <row r="206">
       <c r="B206" t="inlineStr">
         <is>
-          <t>Pánuco de Coronado</t>
+          <t>Pánuco De Coronado</t>
         </is>
       </c>
       <c r="C206">
@@ -3136,7 +3136,7 @@
     <row r="210">
       <c r="B210" t="inlineStr">
         <is>
-          <t>San Juan de Guadalupe</t>
+          <t>San Juan De Guadalupe</t>
         </is>
       </c>
       <c r="C210">
@@ -3149,7 +3149,7 @@
     <row r="211">
       <c r="B211" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C211">
@@ -3162,7 +3162,7 @@
     <row r="212">
       <c r="B212" t="inlineStr">
         <is>
-          <t>San Luis del Cordero</t>
+          <t>San Luis Del Cordero</t>
         </is>
       </c>
       <c r="C212">
@@ -3175,7 +3175,7 @@
     <row r="213">
       <c r="B213" t="inlineStr">
         <is>
-          <t>San Pedro del Gallo</t>
+          <t>San Pedro Del Gallo</t>
         </is>
       </c>
       <c r="C213">
@@ -3292,12 +3292,12 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Acambay de Ruíz Castañeda</t>
+          <t>Acambay De Ruíz Castañeda</t>
         </is>
       </c>
       <c r="C222">
@@ -3349,7 +3349,7 @@
     <row r="226">
       <c r="B226" t="inlineStr">
         <is>
-          <t>Atizapán de Zaragoza</t>
+          <t>Atizapán De Zaragoza</t>
         </is>
       </c>
       <c r="C226">
@@ -3414,7 +3414,7 @@
     <row r="231">
       <c r="B231" t="inlineStr">
         <is>
-          <t>Chapa de Mota</t>
+          <t>Chapa De Mota</t>
         </is>
       </c>
       <c r="C231">
@@ -3440,7 +3440,7 @@
     <row r="233">
       <c r="B233" t="inlineStr">
         <is>
-          <t>Coacalco de Berriozábal</t>
+          <t>Coacalco De Berriozábal</t>
         </is>
       </c>
       <c r="C233">
@@ -3505,7 +3505,7 @@
     <row r="238">
       <c r="B238" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C238">
@@ -3557,7 +3557,7 @@
     <row r="242">
       <c r="B242" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C242">
@@ -3622,7 +3622,7 @@
     <row r="247">
       <c r="B247" t="inlineStr">
         <is>
-          <t>San Felipe del Progreso</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C247">
@@ -3635,7 +3635,7 @@
     <row r="248">
       <c r="B248" t="inlineStr">
         <is>
-          <t>San Martín de las Pirámides</t>
+          <t>San Martín De Las Pirámides</t>
         </is>
       </c>
       <c r="C248">
@@ -3726,7 +3726,7 @@
     <row r="255">
       <c r="B255" t="inlineStr">
         <is>
-          <t>Tenango del Valle</t>
+          <t>Tenango Del Valle</t>
         </is>
       </c>
       <c r="C255">
@@ -3804,7 +3804,7 @@
     <row r="261">
       <c r="B261" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C261">
@@ -3856,7 +3856,7 @@
     <row r="265">
       <c r="B265" t="inlineStr">
         <is>
-          <t>Valle de Chalco Solidaridad</t>
+          <t>Valle De Chalco Solidaridad</t>
         </is>
       </c>
       <c r="C265">
@@ -3882,7 +3882,7 @@
     <row r="267">
       <c r="B267" t="inlineStr">
         <is>
-          <t>Villa de Allende</t>
+          <t>Villa De Allende</t>
         </is>
       </c>
       <c r="C267">
@@ -3978,7 +3978,7 @@
     <row r="274">
       <c r="B274" t="inlineStr">
         <is>
-          <t>Apaseo el Alto</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C274">
@@ -3991,7 +3991,7 @@
     <row r="275">
       <c r="B275" t="inlineStr">
         <is>
-          <t>Apaseo el Grande</t>
+          <t>Apaseo El Grande</t>
         </is>
       </c>
       <c r="C275">
@@ -4095,7 +4095,7 @@
     <row r="283">
       <c r="B283" t="inlineStr">
         <is>
-          <t>Dolores Hidalgo Cuna de la Independencia Nacional</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C283">
@@ -4134,7 +4134,7 @@
     <row r="286">
       <c r="B286" t="inlineStr">
         <is>
-          <t>Jaral del Progreso</t>
+          <t>Jaral Del Progreso</t>
         </is>
       </c>
       <c r="C286">
@@ -4225,7 +4225,7 @@
     <row r="293">
       <c r="B293" t="inlineStr">
         <is>
-          <t>Purísima del Rincón</t>
+          <t>Purísima Del Rincón</t>
         </is>
       </c>
       <c r="C293">
@@ -4290,7 +4290,7 @@
     <row r="298">
       <c r="B298" t="inlineStr">
         <is>
-          <t>San Diego de la Unión</t>
+          <t>San Diego De La Unión</t>
         </is>
       </c>
       <c r="C298">
@@ -4316,7 +4316,7 @@
     <row r="300">
       <c r="B300" t="inlineStr">
         <is>
-          <t>San Francisco del Rincón</t>
+          <t>San Francisco Del Rincón</t>
         </is>
       </c>
       <c r="C300">
@@ -4342,7 +4342,7 @@
     <row r="302">
       <c r="B302" t="inlineStr">
         <is>
-          <t>San Luis de la Paz</t>
+          <t>San Luis De La Paz</t>
         </is>
       </c>
       <c r="C302">
@@ -4355,7 +4355,7 @@
     <row r="303">
       <c r="B303" t="inlineStr">
         <is>
-          <t>San Miguel de Allende</t>
+          <t>San Miguel De Allende</t>
         </is>
       </c>
       <c r="C303">
@@ -4368,7 +4368,7 @@
     <row r="304">
       <c r="B304" t="inlineStr">
         <is>
-          <t>Santa Cruz de Juventino Rosas</t>
+          <t>Santa Cruz De Juventino Rosas</t>
         </is>
       </c>
       <c r="C304">
@@ -4381,7 +4381,7 @@
     <row r="305">
       <c r="B305" t="inlineStr">
         <is>
-          <t>Silao de la Victoria</t>
+          <t>Silao De La Victoria</t>
         </is>
       </c>
       <c r="C305">
@@ -4433,7 +4433,7 @@
     <row r="309">
       <c r="B309" t="inlineStr">
         <is>
-          <t>Valle de Santiago</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C309">
@@ -4516,7 +4516,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C315">
@@ -4555,7 +4555,7 @@
     <row r="318">
       <c r="B318" t="inlineStr">
         <is>
-          <t>Ajuchitlán del Progreso</t>
+          <t>Ajuchitlán Del Progreso</t>
         </is>
       </c>
       <c r="C318">
@@ -4568,7 +4568,7 @@
     <row r="319">
       <c r="B319" t="inlineStr">
         <is>
-          <t>Alcozauca de Guerrero</t>
+          <t>Alcozauca De Guerrero</t>
         </is>
       </c>
       <c r="C319">
@@ -4620,7 +4620,7 @@
     <row r="323">
       <c r="B323" t="inlineStr">
         <is>
-          <t>Atenango del Río</t>
+          <t>Atenango Del Río</t>
         </is>
       </c>
       <c r="C323">
@@ -4633,7 +4633,7 @@
     <row r="324">
       <c r="B324" t="inlineStr">
         <is>
-          <t>Atlamajalcingo del Monte</t>
+          <t>Atlamajalcingo Del Monte</t>
         </is>
       </c>
       <c r="C324">
@@ -4646,7 +4646,7 @@
     <row r="325">
       <c r="B325" t="inlineStr">
         <is>
-          <t>Atoyac de Álvarez</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C325">
@@ -4659,7 +4659,7 @@
     <row r="326">
       <c r="B326" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C326">
@@ -4698,7 +4698,7 @@
     <row r="329">
       <c r="B329" t="inlineStr">
         <is>
-          <t>Buenavista de Cuéllar</t>
+          <t>Buenavista De Cuéllar</t>
         </is>
       </c>
       <c r="C329">
@@ -4711,7 +4711,7 @@
     <row r="330">
       <c r="B330" t="inlineStr">
         <is>
-          <t>Chilapa de Álvarez</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C330">
@@ -4724,7 +4724,7 @@
     <row r="331">
       <c r="B331" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C331">
@@ -4737,7 +4737,7 @@
     <row r="332">
       <c r="B332" t="inlineStr">
         <is>
-          <t>Coahuayutla de José María Izazaga</t>
+          <t>Coahuayutla De José María Izazaga</t>
         </is>
       </c>
       <c r="C332">
@@ -4776,7 +4776,7 @@
     <row r="335">
       <c r="B335" t="inlineStr">
         <is>
-          <t>Coyuca de Benítez</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C335">
@@ -4789,7 +4789,7 @@
     <row r="336">
       <c r="B336" t="inlineStr">
         <is>
-          <t>Coyuca de Catalán</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C336">
@@ -4828,7 +4828,7 @@
     <row r="339">
       <c r="B339" t="inlineStr">
         <is>
-          <t>Cuetzala del Progreso</t>
+          <t>Cuetzala Del Progreso</t>
         </is>
       </c>
       <c r="C339">
@@ -4841,7 +4841,7 @@
     <row r="340">
       <c r="B340" t="inlineStr">
         <is>
-          <t>Cutzamala de Pinzón</t>
+          <t>Cutzamala De Pinzón</t>
         </is>
       </c>
       <c r="C340">
@@ -4919,7 +4919,7 @@
     <row r="346">
       <c r="B346" t="inlineStr">
         <is>
-          <t>Huitzuco de los Figueroa</t>
+          <t>Huitzuco De Los Figueroa</t>
         </is>
       </c>
       <c r="C346">
@@ -4932,7 +4932,7 @@
     <row r="347">
       <c r="B347" t="inlineStr">
         <is>
-          <t>Iguala de la Independencia</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C347">
@@ -4958,7 +4958,7 @@
     <row r="349">
       <c r="B349" t="inlineStr">
         <is>
-          <t>Ixcateopan de Cuauhtémoc</t>
+          <t>Ixcateopan De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C349">
@@ -5049,7 +5049,7 @@
     <row r="356">
       <c r="B356" t="inlineStr">
         <is>
-          <t>Mártir de Cuilapan</t>
+          <t>Mártir De Cuilapan</t>
         </is>
       </c>
       <c r="C356">
@@ -5218,7 +5218,7 @@
     <row r="369">
       <c r="B369" t="inlineStr">
         <is>
-          <t>Tlapa de Comonfort</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C369">
@@ -5244,7 +5244,7 @@
     <row r="371">
       <c r="B371" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C371">
@@ -5283,7 +5283,7 @@
     <row r="374">
       <c r="B374" t="inlineStr">
         <is>
-          <t>Zihuatanejo de Azueta</t>
+          <t>Zihuatanejo De Azueta</t>
         </is>
       </c>
       <c r="C374">
@@ -5418,7 +5418,7 @@
     <row r="384">
       <c r="B384" t="inlineStr">
         <is>
-          <t>Atotonilco el Grande</t>
+          <t>Atotonilco El Grande</t>
         </is>
       </c>
       <c r="C384">
@@ -5483,7 +5483,7 @@
     <row r="389">
       <c r="B389" t="inlineStr">
         <is>
-          <t>Cuautepec de Hinojosa</t>
+          <t>Cuautepec De Hinojosa</t>
         </is>
       </c>
       <c r="C389">
@@ -5561,7 +5561,7 @@
     <row r="395">
       <c r="B395" t="inlineStr">
         <is>
-          <t>Huasca de Ocampo</t>
+          <t>Huasca De Ocampo</t>
         </is>
       </c>
       <c r="C395">
@@ -5613,7 +5613,7 @@
     <row r="399">
       <c r="B399" t="inlineStr">
         <is>
-          <t>Jacala de Ledezma</t>
+          <t>Jacala De Ledezma</t>
         </is>
       </c>
       <c r="C399">
@@ -5665,7 +5665,7 @@
     <row r="403">
       <c r="B403" t="inlineStr">
         <is>
-          <t>Mixquiahuala de Juárez</t>
+          <t>Mixquiahuala De Juárez</t>
         </is>
       </c>
       <c r="C403">
@@ -5678,7 +5678,7 @@
     <row r="404">
       <c r="B404" t="inlineStr">
         <is>
-          <t>Molango de Escamilla</t>
+          <t>Molango De Escamilla</t>
         </is>
       </c>
       <c r="C404">
@@ -5704,7 +5704,7 @@
     <row r="406">
       <c r="B406" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C406">
@@ -5743,7 +5743,7 @@
     <row r="409">
       <c r="B409" t="inlineStr">
         <is>
-          <t>Progreso de Obregón</t>
+          <t>Progreso De Obregón</t>
         </is>
       </c>
       <c r="C409">
@@ -5795,7 +5795,7 @@
     <row r="413">
       <c r="B413" t="inlineStr">
         <is>
-          <t>Santiago Tulantepec de Lugo Guerrero</t>
+          <t>Santiago Tulantepec De Lugo Guerrero</t>
         </is>
       </c>
       <c r="C413">
@@ -5834,7 +5834,7 @@
     <row r="416">
       <c r="B416" t="inlineStr">
         <is>
-          <t>Tepehuacán de Guerrero</t>
+          <t>Tepehuacán De Guerrero</t>
         </is>
       </c>
       <c r="C416">
@@ -5847,7 +5847,7 @@
     <row r="417">
       <c r="B417" t="inlineStr">
         <is>
-          <t>Tepeji del Río de Ocampo</t>
+          <t>Tepeji Del Río De Ocampo</t>
         </is>
       </c>
       <c r="C417">
@@ -5886,7 +5886,7 @@
     <row r="420">
       <c r="B420" t="inlineStr">
         <is>
-          <t>Tezontepec de Aldama</t>
+          <t>Tezontepec De Aldama</t>
         </is>
       </c>
       <c r="C420">
@@ -5938,7 +5938,7 @@
     <row r="424">
       <c r="B424" t="inlineStr">
         <is>
-          <t>Tula de Allende</t>
+          <t>Tula De Allende</t>
         </is>
       </c>
       <c r="C424">
@@ -5951,7 +5951,7 @@
     <row r="425">
       <c r="B425" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C425">
@@ -5964,7 +5964,7 @@
     <row r="426">
       <c r="B426" t="inlineStr">
         <is>
-          <t>Villa de Tezontepec</t>
+          <t>Villa De Tezontepec</t>
         </is>
       </c>
       <c r="C426">
@@ -6003,7 +6003,7 @@
     <row r="429">
       <c r="B429" t="inlineStr">
         <is>
-          <t>Zacualtipán de Ángeles</t>
+          <t>Zacualtipán De Ángeles</t>
         </is>
       </c>
       <c r="C429">
@@ -6060,7 +6060,7 @@
     <row r="433">
       <c r="B433" t="inlineStr">
         <is>
-          <t>Acatlán de Juárez</t>
+          <t>Acatlán De Juárez</t>
         </is>
       </c>
       <c r="C433">
@@ -6073,7 +6073,7 @@
     <row r="434">
       <c r="B434" t="inlineStr">
         <is>
-          <t>Ahualulco de Mercado</t>
+          <t>Ahualulco De Mercado</t>
         </is>
       </c>
       <c r="C434">
@@ -6138,7 +6138,7 @@
     <row r="439">
       <c r="B439" t="inlineStr">
         <is>
-          <t>Atotonilco el Alto</t>
+          <t>Atotonilco El Alto</t>
         </is>
       </c>
       <c r="C439">
@@ -6151,7 +6151,7 @@
     <row r="440">
       <c r="B440" t="inlineStr">
         <is>
-          <t>Autlán de Navarro</t>
+          <t>Autlán De Navarro</t>
         </is>
       </c>
       <c r="C440">
@@ -6346,7 +6346,7 @@
     <row r="455">
       <c r="B455" t="inlineStr">
         <is>
-          <t>Encarnación de Díaz</t>
+          <t>Encarnación De Díaz</t>
         </is>
       </c>
       <c r="C455">
@@ -6450,7 +6450,7 @@
     <row r="463">
       <c r="B463" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C463">
@@ -6489,7 +6489,7 @@
     <row r="466">
       <c r="B466" t="inlineStr">
         <is>
-          <t>Ojuelos de Jalisco</t>
+          <t>Ojuelos De Jalisco</t>
         </is>
       </c>
       <c r="C466">
@@ -6554,7 +6554,7 @@
     <row r="471">
       <c r="B471" t="inlineStr">
         <is>
-          <t>San Juan de los Lagos</t>
+          <t>San Juan De Los Lagos</t>
         </is>
       </c>
       <c r="C471">
@@ -6593,7 +6593,7 @@
     <row r="474">
       <c r="B474" t="inlineStr">
         <is>
-          <t>San Miguel el Alto</t>
+          <t>San Miguel El Alto</t>
         </is>
       </c>
       <c r="C474">
@@ -6632,7 +6632,7 @@
     <row r="477">
       <c r="B477" t="inlineStr">
         <is>
-          <t>Talpa de Allende</t>
+          <t>Talpa De Allende</t>
         </is>
       </c>
       <c r="C477">
@@ -6645,7 +6645,7 @@
     <row r="478">
       <c r="B478" t="inlineStr">
         <is>
-          <t>Tamazula de Gordiano</t>
+          <t>Tamazula De Gordiano</t>
         </is>
       </c>
       <c r="C478">
@@ -6697,7 +6697,7 @@
     <row r="482">
       <c r="B482" t="inlineStr">
         <is>
-          <t>Teocuitatlán de Corona</t>
+          <t>Teocuitatlán De Corona</t>
         </is>
       </c>
       <c r="C482">
@@ -6710,7 +6710,7 @@
     <row r="483">
       <c r="B483" t="inlineStr">
         <is>
-          <t>Tepatitlán de Morelos</t>
+          <t>Tepatitlán De Morelos</t>
         </is>
       </c>
       <c r="C483">
@@ -6723,7 +6723,7 @@
     <row r="484">
       <c r="B484" t="inlineStr">
         <is>
-          <t>Tlajomulco de Zúñiga</t>
+          <t>Tlajomulco De Zúñiga</t>
         </is>
       </c>
       <c r="C484">
@@ -6801,7 +6801,7 @@
     <row r="490">
       <c r="B490" t="inlineStr">
         <is>
-          <t>Unión de San Antonio</t>
+          <t>Unión De San Antonio</t>
         </is>
       </c>
       <c r="C490">
@@ -6814,7 +6814,7 @@
     <row r="491">
       <c r="B491" t="inlineStr">
         <is>
-          <t>Unión de Tula</t>
+          <t>Unión De Tula</t>
         </is>
       </c>
       <c r="C491">
@@ -6866,7 +6866,7 @@
     <row r="495">
       <c r="B495" t="inlineStr">
         <is>
-          <t>Yahualica de González Gallo</t>
+          <t>Yahualica De González Gallo</t>
         </is>
       </c>
       <c r="C495">
@@ -6879,7 +6879,7 @@
     <row r="496">
       <c r="B496" t="inlineStr">
         <is>
-          <t>Zacoalco de Torres</t>
+          <t>Zacoalco De Torres</t>
         </is>
       </c>
       <c r="C496">
@@ -6918,7 +6918,7 @@
     <row r="499">
       <c r="B499" t="inlineStr">
         <is>
-          <t>Zapotitlán de Vadillo</t>
+          <t>Zapotitlán De Vadillo</t>
         </is>
       </c>
       <c r="C499">
@@ -6944,7 +6944,7 @@
     <row r="501">
       <c r="B501" t="inlineStr">
         <is>
-          <t>Zapotlán del Rey</t>
+          <t>Zapotlán Del Rey</t>
         </is>
       </c>
       <c r="C501">
@@ -6957,7 +6957,7 @@
     <row r="502">
       <c r="B502" t="inlineStr">
         <is>
-          <t>Zapotlán el Grande</t>
+          <t>Zapotlán El Grande</t>
         </is>
       </c>
       <c r="C502">
@@ -6983,7 +6983,7 @@
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>Michoacán de Ocampo</t>
+          <t>Michoacán De Ocampo</t>
         </is>
       </c>
       <c r="B504" t="inlineStr">
@@ -7833,7 +7833,7 @@
     <row r="569">
       <c r="B569" t="inlineStr">
         <is>
-          <t>Tiquicheo de Nicolás Romero</t>
+          <t>Tiquicheo De Nicolás Romero</t>
         </is>
       </c>
       <c r="C569">
@@ -8150,7 +8150,7 @@
     <row r="593">
       <c r="B593" t="inlineStr">
         <is>
-          <t>Puente de Ixtla</t>
+          <t>Puente De Ixtla</t>
         </is>
       </c>
       <c r="C593">
@@ -8163,7 +8163,7 @@
     <row r="594">
       <c r="B594" t="inlineStr">
         <is>
-          <t>Tlaltizapán de Zapata</t>
+          <t>Tlaltizapán De Zapata</t>
         </is>
       </c>
       <c r="C594">
@@ -8337,7 +8337,7 @@
     <row r="607">
       <c r="B607" t="inlineStr">
         <is>
-          <t>Santa María del Oro</t>
+          <t>Santa María Del Oro</t>
         </is>
       </c>
       <c r="C607">
@@ -8472,7 +8472,7 @@
     <row r="617">
       <c r="B617" t="inlineStr">
         <is>
-          <t>Ciénega de Flores</t>
+          <t>Ciénega De Flores</t>
         </is>
       </c>
       <c r="C617">
@@ -8550,7 +8550,7 @@
     <row r="623">
       <c r="B623" t="inlineStr">
         <is>
-          <t>San Nicolás de los Garza</t>
+          <t>San Nicolás De Los Garza</t>
         </is>
       </c>
       <c r="C623">
@@ -8607,7 +8607,7 @@
       </c>
       <c r="B627" t="inlineStr">
         <is>
-          <t>Ayoquezco de Aldama</t>
+          <t>Ayoquezco De Aldama</t>
         </is>
       </c>
       <c r="C627">
@@ -8633,7 +8633,7 @@
     <row r="629">
       <c r="B629" t="inlineStr">
         <is>
-          <t>Chiquihuitlán de Benito Juárez</t>
+          <t>Chiquihuitlán De Benito Juárez</t>
         </is>
       </c>
       <c r="C629">
@@ -8646,7 +8646,7 @@
     <row r="630">
       <c r="B630" t="inlineStr">
         <is>
-          <t>Coicoyán de las Flores</t>
+          <t>Coicoyán De Las Flores</t>
         </is>
       </c>
       <c r="C630">
@@ -8685,7 +8685,7 @@
     <row r="633">
       <c r="B633" t="inlineStr">
         <is>
-          <t>Cuyamecalco Villa de Zaragoza</t>
+          <t>Cuyamecalco Villa De Zaragoza</t>
         </is>
       </c>
       <c r="C633">
@@ -8711,7 +8711,7 @@
     <row r="635">
       <c r="B635" t="inlineStr">
         <is>
-          <t>El Barrio de la Soledad</t>
+          <t>El Barrio De La Soledad</t>
         </is>
       </c>
       <c r="C635">
@@ -8724,7 +8724,7 @@
     <row r="636">
       <c r="B636" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Ejutla de Crespo</t>
+          <t>Heroica Ciudad De Ejutla De Crespo</t>
         </is>
       </c>
       <c r="C636">
@@ -8737,7 +8737,7 @@
     <row r="637">
       <c r="B637" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Juchitán de Zaragoza</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C637">
@@ -8750,7 +8750,7 @@
     <row r="638">
       <c r="B638" t="inlineStr">
         <is>
-          <t>Huajuapan de León</t>
+          <t>Huajuapan De León</t>
         </is>
       </c>
       <c r="C638">
@@ -8763,7 +8763,7 @@
     <row r="639">
       <c r="B639" t="inlineStr">
         <is>
-          <t>Ixtlán de Juárez</t>
+          <t>Ixtlán De Juárez</t>
         </is>
       </c>
       <c r="C639">
@@ -8815,7 +8815,7 @@
     <row r="643">
       <c r="B643" t="inlineStr">
         <is>
-          <t>Mariscala de Juárez</t>
+          <t>Mariscala De Juárez</t>
         </is>
       </c>
       <c r="C643">
@@ -8841,7 +8841,7 @@
     <row r="645">
       <c r="B645" t="inlineStr">
         <is>
-          <t>Mazatlán Villa de Flores</t>
+          <t>Mazatlán Villa De Flores</t>
         </is>
       </c>
       <c r="C645">
@@ -8854,7 +8854,7 @@
     <row r="646">
       <c r="B646" t="inlineStr">
         <is>
-          <t>Miahuatlán de Porfirio Díaz</t>
+          <t>Miahuatlán De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C646">
@@ -8867,7 +8867,7 @@
     <row r="647">
       <c r="B647" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C647">
@@ -8880,7 +8880,7 @@
     <row r="648">
       <c r="B648" t="inlineStr">
         <is>
-          <t>Ocotlán de Morelos</t>
+          <t>Ocotlán De Morelos</t>
         </is>
       </c>
       <c r="C648">
@@ -9166,7 +9166,7 @@
     <row r="670">
       <c r="B670" t="inlineStr">
         <is>
-          <t>San Miguel del Puerto</t>
+          <t>San Miguel Del Puerto</t>
         </is>
       </c>
       <c r="C670">
@@ -9231,7 +9231,7 @@
     <row r="675">
       <c r="B675" t="inlineStr">
         <is>
-          <t>San Pedro el Alto</t>
+          <t>San Pedro El Alto</t>
         </is>
       </c>
       <c r="C675">
@@ -9244,7 +9244,7 @@
     <row r="676">
       <c r="B676" t="inlineStr">
         <is>
-          <t>San Pedro y San Pablo Teposcolula</t>
+          <t>San Pedro Y San Pablo Teposcolula</t>
         </is>
       </c>
       <c r="C676">
@@ -9322,7 +9322,7 @@
     <row r="682">
       <c r="B682" t="inlineStr">
         <is>
-          <t>Santa Lucía del Camino</t>
+          <t>Santa Lucía Del Camino</t>
         </is>
       </c>
       <c r="C682">
@@ -9530,7 +9530,7 @@
     <row r="698">
       <c r="B698" t="inlineStr">
         <is>
-          <t>Teotitlán de Flores Magón</t>
+          <t>Teotitlán De Flores Magón</t>
         </is>
       </c>
       <c r="C698">
@@ -9543,7 +9543,7 @@
     <row r="699">
       <c r="B699" t="inlineStr">
         <is>
-          <t>Tezoatlán de Segura y Luna</t>
+          <t>Tezoatlán De Segura Y Luna</t>
         </is>
       </c>
       <c r="C699">
@@ -9556,7 +9556,7 @@
     <row r="700">
       <c r="B700" t="inlineStr">
         <is>
-          <t>Tlacolula de Matamoros</t>
+          <t>Tlacolula De Matamoros</t>
         </is>
       </c>
       <c r="C700">
@@ -9569,7 +9569,7 @@
     <row r="701">
       <c r="B701" t="inlineStr">
         <is>
-          <t>Villa Sola de Vega</t>
+          <t>Villa Sola De Vega</t>
         </is>
       </c>
       <c r="C701">
@@ -9582,7 +9582,7 @@
     <row r="702">
       <c r="B702" t="inlineStr">
         <is>
-          <t>Villa de Chilapa de Díaz</t>
+          <t>Villa De Chilapa De Díaz</t>
         </is>
       </c>
       <c r="C702">
@@ -9595,7 +9595,7 @@
     <row r="703">
       <c r="B703" t="inlineStr">
         <is>
-          <t>Villa de Zaachila</t>
+          <t>Villa De Zaachila</t>
         </is>
       </c>
       <c r="C703">
@@ -9691,7 +9691,7 @@
     <row r="710">
       <c r="B710" t="inlineStr">
         <is>
-          <t>Chalchicomula de Sesma</t>
+          <t>Chalchicomula De Sesma</t>
         </is>
       </c>
       <c r="C710">
@@ -9951,7 +9951,7 @@
     <row r="730">
       <c r="B730" t="inlineStr">
         <is>
-          <t>Los Reyes de Juárez</t>
+          <t>Los Reyes De Juárez</t>
         </is>
       </c>
       <c r="C730">
@@ -10120,7 +10120,7 @@
     <row r="743">
       <c r="B743" t="inlineStr">
         <is>
-          <t>San Salvador el Verde</t>
+          <t>San Salvador El Verde</t>
         </is>
       </c>
       <c r="C743">
@@ -10159,7 +10159,7 @@
     <row r="746">
       <c r="B746" t="inlineStr">
         <is>
-          <t>Tecali de Herrera</t>
+          <t>Tecali De Herrera</t>
         </is>
       </c>
       <c r="C746">
@@ -10198,7 +10198,7 @@
     <row r="749">
       <c r="B749" t="inlineStr">
         <is>
-          <t>Tepatlaxco de Hidalgo</t>
+          <t>Tepatlaxco De Hidalgo</t>
         </is>
       </c>
       <c r="C749">
@@ -10224,7 +10224,7 @@
     <row r="751">
       <c r="B751" t="inlineStr">
         <is>
-          <t>Tetela de Ocampo</t>
+          <t>Tetela De Ocampo</t>
         </is>
       </c>
       <c r="C751">
@@ -10250,7 +10250,7 @@
     <row r="753">
       <c r="B753" t="inlineStr">
         <is>
-          <t>Tlacotepec de Benito Juárez</t>
+          <t>Tlacotepec De Benito Juárez</t>
         </is>
       </c>
       <c r="C753">
@@ -10450,7 +10450,7 @@
       </c>
       <c r="B768" t="inlineStr">
         <is>
-          <t>Amealco de Bonfil</t>
+          <t>Amealco De Bonfil</t>
         </is>
       </c>
       <c r="C768">
@@ -10541,7 +10541,7 @@
     <row r="775">
       <c r="B775" t="inlineStr">
         <is>
-          <t>Jalpan de Serra</t>
+          <t>Jalpan De Serra</t>
         </is>
       </c>
       <c r="C775">
@@ -10567,7 +10567,7 @@
     <row r="777">
       <c r="B777" t="inlineStr">
         <is>
-          <t>Pinal de Amoles</t>
+          <t>Pinal De Amoles</t>
         </is>
       </c>
       <c r="C777">
@@ -10593,7 +10593,7 @@
     <row r="779">
       <c r="B779" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C779">
@@ -10746,7 +10746,7 @@
     <row r="790">
       <c r="B790" t="inlineStr">
         <is>
-          <t>Cerro de San Pedro</t>
+          <t>Cerro De San Pedro</t>
         </is>
       </c>
       <c r="C790">
@@ -10889,7 +10889,7 @@
     <row r="801">
       <c r="B801" t="inlineStr">
         <is>
-          <t>Mexquitic de Carmona</t>
+          <t>Mexquitic De Carmona</t>
         </is>
       </c>
       <c r="C801">
@@ -10954,7 +10954,7 @@
     <row r="806">
       <c r="B806" t="inlineStr">
         <is>
-          <t>San Ciro de Acosta</t>
+          <t>San Ciro De Acosta</t>
         </is>
       </c>
       <c r="C806">
@@ -11006,7 +11006,7 @@
     <row r="810">
       <c r="B810" t="inlineStr">
         <is>
-          <t>Santa María del Río</t>
+          <t>Santa María Del Río</t>
         </is>
       </c>
       <c r="C810">
@@ -11032,7 +11032,7 @@
     <row r="812">
       <c r="B812" t="inlineStr">
         <is>
-          <t>Soledad de Graciano Sánchez</t>
+          <t>Soledad De Graciano Sánchez</t>
         </is>
       </c>
       <c r="C812">
@@ -11123,7 +11123,7 @@
     <row r="819">
       <c r="B819" t="inlineStr">
         <is>
-          <t>Villa de Ramos</t>
+          <t>Villa De Ramos</t>
         </is>
       </c>
       <c r="C819">
@@ -11136,7 +11136,7 @@
     <row r="820">
       <c r="B820" t="inlineStr">
         <is>
-          <t>Villa de Reyes</t>
+          <t>Villa De Reyes</t>
         </is>
       </c>
       <c r="C820">
@@ -11897,7 +11897,7 @@
     <row r="877">
       <c r="B877" t="inlineStr">
         <is>
-          <t>Soto la Marina</t>
+          <t>Soto La Marina</t>
         </is>
       </c>
       <c r="C877">
@@ -12019,7 +12019,7 @@
     <row r="886">
       <c r="B886" t="inlineStr">
         <is>
-          <t>Ixtacuixtla de Mariano Matamoros</t>
+          <t>Ixtacuixtla De Mariano Matamoros</t>
         </is>
       </c>
       <c r="C886">
@@ -12045,7 +12045,7 @@
     <row r="888">
       <c r="B888" t="inlineStr">
         <is>
-          <t>Mazatecochco de José María Morelos</t>
+          <t>Mazatecochco De José María Morelos</t>
         </is>
       </c>
       <c r="C888">
@@ -12058,7 +12058,7 @@
     <row r="889">
       <c r="B889" t="inlineStr">
         <is>
-          <t>Nanacamilpa de Mariano Arista</t>
+          <t>Nanacamilpa De Mariano Arista</t>
         </is>
       </c>
       <c r="C889">
@@ -12071,7 +12071,7 @@
     <row r="890">
       <c r="B890" t="inlineStr">
         <is>
-          <t>Papalotla de Xicohténcatl</t>
+          <t>Papalotla De Xicohténcatl</t>
         </is>
       </c>
       <c r="C890">
@@ -12097,7 +12097,7 @@
     <row r="892">
       <c r="B892" t="inlineStr">
         <is>
-          <t>Tetla de la Solidaridad</t>
+          <t>Tetla De La Solidaridad</t>
         </is>
       </c>
       <c r="C892">
@@ -12175,7 +12175,7 @@
     <row r="898">
       <c r="A898" t="inlineStr">
         <is>
-          <t>Veracruz de Ignacio de la Llave</t>
+          <t>Veracruz De Ignacio De La Llave</t>
         </is>
       </c>
       <c r="B898" t="inlineStr">
@@ -12232,7 +12232,7 @@
     <row r="902">
       <c r="B902" t="inlineStr">
         <is>
-          <t>Alto Lucero de Gutiérrez Barrios</t>
+          <t>Alto Lucero De Gutiérrez Barrios</t>
         </is>
       </c>
       <c r="C902">
@@ -12284,7 +12284,7 @@
     <row r="906">
       <c r="B906" t="inlineStr">
         <is>
-          <t>Amatlán de los Reyes</t>
+          <t>Amatlán De Los Reyes</t>
         </is>
       </c>
       <c r="C906">
@@ -12336,7 +12336,7 @@
     <row r="910">
       <c r="B910" t="inlineStr">
         <is>
-          <t>Boca del Río</t>
+          <t>Boca Del Río</t>
         </is>
       </c>
       <c r="C910">
@@ -12349,7 +12349,7 @@
     <row r="911">
       <c r="B911" t="inlineStr">
         <is>
-          <t>Camarón de Tejeda</t>
+          <t>Camarón De Tejeda</t>
         </is>
       </c>
       <c r="C911">
@@ -12362,7 +12362,7 @@
     <row r="912">
       <c r="B912" t="inlineStr">
         <is>
-          <t>Castillo de Teayo</t>
+          <t>Castillo De Teayo</t>
         </is>
       </c>
       <c r="C912">
@@ -12479,7 +12479,7 @@
     <row r="921">
       <c r="B921" t="inlineStr">
         <is>
-          <t>Cosamaloapan de Carpio</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C921">
@@ -12635,7 +12635,7 @@
     <row r="933">
       <c r="B933" t="inlineStr">
         <is>
-          <t>Ixhuatlán de Madero</t>
+          <t>Ixhuatlán De Madero</t>
         </is>
       </c>
       <c r="C933">
@@ -12713,7 +12713,7 @@
     <row r="939">
       <c r="B939" t="inlineStr">
         <is>
-          <t>Juchique de Ferrer</t>
+          <t>Juchique De Ferrer</t>
         </is>
       </c>
       <c r="C939">
@@ -12752,7 +12752,7 @@
     <row r="942">
       <c r="B942" t="inlineStr">
         <is>
-          <t>Landero y Coss</t>
+          <t>Landero Y Coss</t>
         </is>
       </c>
       <c r="C942">
@@ -12778,7 +12778,7 @@
     <row r="944">
       <c r="B944" t="inlineStr">
         <is>
-          <t>Lerdo de Tejada</t>
+          <t>Lerdo De Tejada</t>
         </is>
       </c>
       <c r="C944">
@@ -12791,7 +12791,7 @@
     <row r="945">
       <c r="B945" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C945">
@@ -12908,7 +12908,7 @@
     <row r="954">
       <c r="B954" t="inlineStr">
         <is>
-          <t>Paso de Ovejas</t>
+          <t>Paso De Ovejas</t>
         </is>
       </c>
       <c r="C954">
@@ -12947,7 +12947,7 @@
     <row r="957">
       <c r="B957" t="inlineStr">
         <is>
-          <t>Poza Rica de Hidalgo</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C957">
@@ -13038,7 +13038,7 @@
     <row r="964">
       <c r="B964" t="inlineStr">
         <is>
-          <t>Sayula de Alemán</t>
+          <t>Sayula De Alemán</t>
         </is>
       </c>
       <c r="C964">
@@ -13051,7 +13051,7 @@
     <row r="965">
       <c r="B965" t="inlineStr">
         <is>
-          <t>Soledad de Doblado</t>
+          <t>Soledad De Doblado</t>
         </is>
       </c>
       <c r="C965">
@@ -13259,7 +13259,7 @@
     <row r="981">
       <c r="B981" t="inlineStr">
         <is>
-          <t>Vega de Alatorre</t>
+          <t>Vega De Alatorre</t>
         </is>
       </c>
       <c r="C981">
@@ -13451,7 +13451,7 @@
     <row r="995">
       <c r="B995" t="inlineStr">
         <is>
-          <t>Cañitas de Felipe Pescador</t>
+          <t>Cañitas De Felipe Pescador</t>
         </is>
       </c>
       <c r="C995">
@@ -13594,7 +13594,7 @@
     <row r="1006">
       <c r="B1006" t="inlineStr">
         <is>
-          <t>Jiménez del Teul</t>
+          <t>Jiménez Del Teul</t>
         </is>
       </c>
       <c r="C1006">
@@ -13685,7 +13685,7 @@
     <row r="1013">
       <c r="B1013" t="inlineStr">
         <is>
-          <t>Nochistlán de Mejía</t>
+          <t>Nochistlán De Mejía</t>
         </is>
       </c>
       <c r="C1013">
@@ -13815,7 +13815,7 @@
     <row r="1023">
       <c r="B1023" t="inlineStr">
         <is>
-          <t>Teúl de González Ortega</t>
+          <t>Teúl De González Ortega</t>
         </is>
       </c>
       <c r="C1023">
@@ -13828,7 +13828,7 @@
     <row r="1024">
       <c r="B1024" t="inlineStr">
         <is>
-          <t>Tlaltenango de Sánchez Román</t>
+          <t>Tlaltenango De Sánchez Román</t>
         </is>
       </c>
       <c r="C1024">
@@ -13854,7 +13854,7 @@
     <row r="1026">
       <c r="B1026" t="inlineStr">
         <is>
-          <t>Trinidad García de la Cadena</t>
+          <t>Trinidad García De La Cadena</t>
         </is>
       </c>
       <c r="C1026">
@@ -13932,7 +13932,7 @@
     <row r="1032">
       <c r="B1032" t="inlineStr">
         <is>
-          <t>Villa de Cos</t>
+          <t>Villa De Cos</t>
         </is>
       </c>
       <c r="C1032">
@@ -13984,7 +13984,7 @@
     <row r="1036">
       <c r="A1036" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C1036">
@@ -13992,41 +13992,6 @@
       </c>
       <c r="D1036">
         <v>1</v>
-      </c>
-    </row>
-    <row r="1038">
-      <c r="A1038" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 808,027</t>
-        </is>
-      </c>
-    </row>
-    <row r="1039">
-      <c r="A1039" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="1040">
-      <c r="A1040" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de Mexicanas y Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="1041">
-      <c r="A1041" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="1042">
-      <c r="A1042" t="inlineStr">
-        <is>
-          <t>Junio de 2025</t>
-        </is>
       </c>
     </row>
   </sheetData>
